--- a/src/test/resources/HomeRental TestData.xlsx
+++ b/src/test/resources/HomeRental TestData.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satya\OneDrive\Desktop\selenium programs\com.RE.Twinlite\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satya\OneDrive\Desktop\selenium programs\com.RE.Twinlite.practice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7058C365-E7AE-44BF-B568-63729EE2BD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF85A5C-4D49-43BE-AF01-8510BAD885BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginAdmin" sheetId="1" r:id="rId1"/>
+    <sheet name="RegUser" sheetId="2" r:id="rId2"/>
+    <sheet name="RegUser2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>fullname</t>
   </si>
@@ -181,13 +183,34 @@
   </si>
   <si>
     <t>2400sft</t>
+  </si>
+  <si>
+    <t>RAJU</t>
+  </si>
+  <si>
+    <t>rajumama</t>
+  </si>
+  <si>
+    <t>raju2030sosos@gmail.com</t>
+  </si>
+  <si>
+    <t>5551110</t>
+  </si>
+  <si>
+    <t>RAJU111</t>
+  </si>
+  <si>
+    <t>5551110111</t>
+  </si>
+  <si>
+    <t>111raju2030sosos@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +230,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,10 +266,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -247,8 +279,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -861,4 +897,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF9D3F7-C665-4FCE-B0EE-C9C21CF3A56A}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{CB7B63E8-DCA8-4687-84C9-5CE37136FE30}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A326A8B-7058-47C3-82C6-DDC22DB214DF}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>